--- a/Member/Team Member DPI.xlsx
+++ b/Member/Team Member DPI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3Mora\Desktop\Dpi nonTecnical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3Mora\Apple-Sales-Project\Apple-Sales-Project-1\Apple-Sales-Project\Member\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB224647-8932-450B-9156-F8D7E386DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D291D9-DD01-428F-9E7F-E0F0359C3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1902" yWindow="1902" windowWidth="19562" windowHeight="10161" xr2:uid="{840B82C9-970F-4B8A-A5F1-01BEA5774D19}"/>
+    <workbookView xWindow="4755" yWindow="3994" windowWidth="19562" windowHeight="10161" xr2:uid="{840B82C9-970F-4B8A-A5F1-01BEA5774D19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,13 +126,13 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -155,12 +155,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BD83534-82C5-4CDA-A374-55437BA8323B}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BD83534-82C5-4CDA-A374-55437BA8323B}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C3" xr:uid="{9BD83534-82C5-4CDA-A374-55437BA8323B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F22E3E20-985E-4B11-8F92-39A64C34D6F9}" name="Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{531B0CF6-87B6-4E5A-A629-7B18F47535F7}" name="Email" dataDxfId="3" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{ABA280C8-F23E-4E0B-8D77-FDFB03DE3EDA}" name="Phone Number" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F22E3E20-985E-4B11-8F92-39A64C34D6F9}" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{531B0CF6-87B6-4E5A-A629-7B18F47535F7}" name="Email" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{ABA280C8-F23E-4E0B-8D77-FDFB03DE3EDA}" name="Phone Number" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
